--- a/biology/Botanique/Englerophytum/Englerophytum.xlsx
+++ b/biology/Botanique/Englerophytum/Englerophytum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Englerophytum est un genre de plantes à fleurs de la famille des Sapotaceae. Ce sont des arbres ou des arbustes originaires d'Afrique tropicale.
 Ce genre compterait quatre espèces.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bequaertiodendron De Wild., Rev. Zool. Bot. Africaines 7(Suppl.): 21 (1919).
 Tisserantiodoxa Aubrév. &amp; Pellegr., Bull. Soc. Bot. France 104: 277 (1957).
@@ -548,13 +562,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Englerophytum congoense
 Englerophytum hallei
 Englerophytum iturense
 Englerophytum magalismontanum
-Englerophytum somiferanum [note 1],[1]</t>
+Englerophytum somiferanum [note 1],</t>
         </is>
       </c>
     </row>
@@ -583,6 +599,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
